--- a/output/xlsx/UC007 - Enviar Mensagem de Contato--GTP-.xlsx
+++ b/output/xlsx/UC007 - Enviar Mensagem de Contato--GTP-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="60">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -41,7 +41,7 @@
     <t>Reduced (Greedy Heuristic - Transition Pair Coverage)</t>
   </si>
   <si>
-    <t>Size: 3 test case(s))</t>
+    <t>Size: 6 test case(s))</t>
   </si>
   <si>
     <t xml:space="preserve">Creation Date: </t>
@@ -110,79 +110,88 @@
     <t>SYSTEM apresenta o e-mail informado</t>
   </si>
   <si>
+    <t>Usuário do Sistema seleciona 'Sugestão' como tipo de mensagem</t>
+  </si>
+  <si>
+    <t>SYSTEM apresenta o tipo de mensagem selecionado</t>
+  </si>
+  <si>
+    <t>Usuário do Sistema seleciona faixa etária 'Entre 30 e 60 anos'</t>
+  </si>
+  <si>
+    <t>SYSTEM apresenta a faixa de idade selecionada</t>
+  </si>
+  <si>
+    <t>Usuário do Sistema escreve o conteúdo da mensagem</t>
+  </si>
+  <si>
+    <t>SYSTEM apresenta o conteúdo da mensagem informado</t>
+  </si>
+  <si>
+    <t>Usuário do Sistema submete o formulário</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe mensagem de erro solicitando preenchimento do conteúdo</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe mensagem de erro solicitando escolha pelo tipo de mensagem</t>
+  </si>
+  <si>
+    <t>Usuário do Sistema seleciona o tipo de mensagem</t>
+  </si>
+  <si>
+    <t>Usuário do Sistema seleciona faixa etária 'Entre 18 e 29 anos'</t>
+  </si>
+  <si>
+    <t>SYSTEM processa e envia a mensagem</t>
+  </si>
+  <si>
+    <t>Usuário do Sistema visualiza mensagem de confirmação</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe mensagem 'Mensagem de &lt;tipo de mensagem&gt; por usuário de idade &lt;faixa de idade&gt; foi enviada com sucesso'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcondition: </t>
+  </si>
+  <si>
+    <t>Mensagem de contato foi enviada com sucesso para a administração</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>Usuário do Sistema seleciona 'Reclamação' como tipo de mensagem</t>
+  </si>
+  <si>
+    <t>Usuário do Sistema seleciona faixa etária 'Acima de 60 anos'</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe mensagem de erro solicitando preenchimento do nome</t>
+  </si>
+  <si>
     <t>Usuário do Sistema seleciona 'Dúvida' como tipo de mensagem</t>
   </si>
   <si>
-    <t>SYSTEM apresenta o tipo de mensagem selecionado</t>
-  </si>
-  <si>
     <t>Usuário do Sistema seleciona a faixa de idade</t>
   </si>
   <si>
-    <t>SYSTEM apresenta a faixa de idade selecionada</t>
-  </si>
-  <si>
-    <t>Usuário do Sistema escreve o conteúdo da mensagem</t>
-  </si>
-  <si>
-    <t>SYSTEM apresenta o conteúdo da mensagem informado</t>
-  </si>
-  <si>
-    <t>Usuário do Sistema submete o formulário</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe mensagem 'Sua mensagem não pôde ser enviada no momento! Tente mais tarde.' (MSG004)</t>
+    <t>TC3</t>
   </si>
   <si>
     <t>SYSTEM exibe mensagem de erro solicitando e-mail válido</t>
   </si>
   <si>
-    <t>Usuário do Sistema seleciona 'Sugestão' como tipo de mensagem</t>
-  </si>
-  <si>
-    <t>Usuário do Sistema seleciona faixa etária 'Entre 30 e 60 anos'</t>
-  </si>
-  <si>
-    <t>SYSTEM processa e envia a mensagem</t>
-  </si>
-  <si>
-    <t>Usuário do Sistema visualiza mensagem de confirmação</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe mensagem 'Mensagem de &lt;tipo de mensagem&gt; por usuário de idade &lt;faixa de idade&gt; foi enviada com sucesso'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcondition: </t>
-  </si>
-  <si>
-    <t>Mensagem de contato foi enviada com sucesso para a administração</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>Usuário do Sistema seleciona o tipo de mensagem</t>
-  </si>
-  <si>
-    <t>Usuário do Sistema seleciona faixa etária 'Entre 18 e 29 anos'</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe mensagem de erro solicitando preenchimento do nome</t>
-  </si>
-  <si>
-    <t>Usuário do Sistema seleciona 'Reclamação' como tipo de mensagem</t>
-  </si>
-  <si>
-    <t>Usuário do Sistema seleciona faixa etária 'Menor que 18 anos'</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Usuário do Sistema seleciona faixa etária 'Acima de 60 anos'</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe mensagem de erro solicitando preenchimento do conteúdo</t>
+    <t>Usuário do Sistema mantida faixa etária selecionada por padrão: 'Menor que 18 anos'</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>TC6</t>
   </si>
 </sst>
 </file>
@@ -378,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -679,13 +688,13 @@
         <v>8.0</v>
       </c>
       <c r="B17" t="s" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D17" t="s" s="7">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s" s="6">
         <v>2</v>
@@ -699,13 +708,13 @@
         <v>9.0</v>
       </c>
       <c r="B18" t="s" s="7">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D18" t="s" s="7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s" s="6">
         <v>2</v>
@@ -1363,7 +1372,7 @@
         <v>4.0</v>
       </c>
       <c r="B55" t="s" s="7">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s" s="6">
         <v>2</v>
@@ -1383,7 +1392,7 @@
         <v>5.0</v>
       </c>
       <c r="B56" t="s" s="7">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C56" t="s" s="6">
         <v>2</v>
@@ -1429,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s" s="7">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E58" t="s" s="6">
         <v>2</v>
@@ -1443,13 +1452,13 @@
         <v>8.0</v>
       </c>
       <c r="B59" t="s" s="7">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D59" t="s" s="7">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E59" t="s" s="6">
         <v>2</v>
@@ -1463,13 +1472,13 @@
         <v>9.0</v>
       </c>
       <c r="B60" t="s" s="7">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D60" t="s" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E60" t="s" s="6">
         <v>2</v>
@@ -1483,13 +1492,13 @@
         <v>10.0</v>
       </c>
       <c r="B61" t="s" s="7">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D61" t="s" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E61" t="s" s="6">
         <v>2</v>
@@ -1503,13 +1512,13 @@
         <v>11.0</v>
       </c>
       <c r="B62" t="s" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D62" t="s" s="7">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E62" t="s" s="6">
         <v>2</v>
@@ -1523,38 +1532,1204 @@
         <v>12.0</v>
       </c>
       <c r="B63" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C63" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E63" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B64" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="C63" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s" s="7">
+      <c r="C64" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="E63" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F63" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="8">
+      <c r="E64" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="8">
         <v>46</v>
       </c>
-      <c r="B64" t="s" s="8">
+      <c r="B65" t="s" s="8">
         <v>47</v>
       </c>
-      <c r="C64" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D64" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F64" t="s" s="8">
+      <c r="C65" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68">
+      <c r="A68" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="C68" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F68" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F69" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D71" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E71" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F71" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B72" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B73" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B74" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B75" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="C75" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E75" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B76" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C76" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E76" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B77" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C77" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E77" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B78" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="E78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="C79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B80" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="C80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B81" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B82" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C82" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E82" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B83" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C83" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E83" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B84" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C84" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E84" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="B85" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C85" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E85" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="8">
+        <v>46</v>
+      </c>
+      <c r="B86" t="s" s="8">
+        <v>47</v>
+      </c>
+      <c r="C86" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89">
+      <c r="A89" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B89" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="C89" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F89" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F90" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C91" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D92" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E92" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F92" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B93" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C93" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E93" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B94" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C94" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E94" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B95" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C95" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E95" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F95" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B96" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="C96" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E96" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B97" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C97" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E97" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B98" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C98" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E98" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B99" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C99" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="E99" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B100" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="C100" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E100" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F100" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B101" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C101" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E101" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B102" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C102" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E102" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B103" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C103" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E103" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B104" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C104" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E104" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B105" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C105" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E105" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F105" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="B106" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C106" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E106" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="8">
+        <v>46</v>
+      </c>
+      <c r="B107" t="s" s="8">
+        <v>47</v>
+      </c>
+      <c r="C107" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110">
+      <c r="A110" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B110" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="C110" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F110" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B111" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F111" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B112" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C112" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C113" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D113" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E113" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F113" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B114" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C114" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E114" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B115" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C115" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E115" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B116" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C116" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E116" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B117" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="C117" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E117" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B118" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C118" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E118" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B119" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C119" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E119" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F119" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B120" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C120" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E120" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F120" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B121" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C121" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E121" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F121" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B122" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C122" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="E122" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F122" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B123" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C123" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E123" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B124" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C124" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E124" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F124" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B125" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C125" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E125" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F125" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B126" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C126" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E126" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F126" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="B127" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C127" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E127" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="8">
+        <v>46</v>
+      </c>
+      <c r="B128" t="s" s="8">
+        <v>47</v>
+      </c>
+      <c r="C128" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E128" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F128" t="s" s="8">
         <v>2</v>
       </c>
     </row>
@@ -1569,7 +2744,16 @@
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B128:F128"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
